--- a/tables/DE/SDE_rand_1_bin_F_09_Cr_09_pop50/DE_table2_F14_dim30.xlsx
+++ b/tables/DE/SDE_rand_1_bin_F_09_Cr_09_pop50/DE_table2_F14_dim30.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>Gen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>MaxFES</t>
   </si>
   <si>
     <t>Run  0</t>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Run 49</t>
-  </si>
-  <si>
-    <t>Run 50</t>
   </si>
   <si>
     <t>Mean</t>
@@ -526,7 +523,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,11 +688,8 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -850,15 +844,12 @@
         <v>500.45492682</v>
       </c>
       <c r="AZ2" t="n">
-        <v>427.13154347</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>439.88354133</v>
+        <v>440.13858129</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>0.001</v>
       </c>
       <c r="B3" t="n">
         <v>429.00026524</v>
@@ -1011,15 +1002,12 @@
         <v>500.45492682</v>
       </c>
       <c r="AZ3" t="n">
-        <v>427.13154347</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>433.89447588</v>
+        <v>434.02973453</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="n">
-        <v>60</v>
+        <v>0.01</v>
       </c>
       <c r="B4" t="n">
         <v>376.21561116</v>
@@ -1172,15 +1160,12 @@
         <v>279.58602493</v>
       </c>
       <c r="AZ4" t="n">
-        <v>299.55493026</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>333.5348901</v>
+        <v>334.2144893</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="n">
-        <v>600</v>
+        <v>0.1</v>
       </c>
       <c r="B5" t="n">
         <v>154.59126113</v>
@@ -1333,15 +1318,12 @@
         <v>162.78179498</v>
       </c>
       <c r="AZ5" t="n">
-        <v>197.45084025</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>140.63186761</v>
+        <v>139.49548815</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="n">
-        <v>1200</v>
+        <v>0.2</v>
       </c>
       <c r="B6" t="n">
         <v>44.72051828</v>
@@ -1494,15 +1476,12 @@
         <v>69.91763029000001</v>
       </c>
       <c r="AZ6" t="n">
-        <v>81.04983785</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>64.87629578000001</v>
+        <v>64.55282493999999</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="n">
-        <v>1799</v>
+        <v>0.3</v>
       </c>
       <c r="B7" t="n">
         <v>5.10658981</v>
@@ -1655,15 +1634,12 @@
         <v>25.95046626</v>
       </c>
       <c r="AZ7" t="n">
-        <v>19.86170668</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>26.00161853</v>
+        <v>26.12441676</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="n">
-        <v>2399</v>
+        <v>0.4</v>
       </c>
       <c r="B8" t="n">
         <v>0.37577913</v>
@@ -1816,15 +1792,12 @@
         <v>4.51546442</v>
       </c>
       <c r="AZ8" t="n">
-        <v>1.31235776</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>6.95686199</v>
+        <v>7.06975208</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="n">
-        <v>2999</v>
+        <v>0.5</v>
       </c>
       <c r="B9" t="n">
         <v>0.37577913</v>
@@ -1977,15 +1950,12 @@
         <v>0.31162305</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.49758974</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>1.11376455</v>
+        <v>1.12608805</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="n">
-        <v>3599</v>
+        <v>0.6</v>
       </c>
       <c r="B10" t="n">
         <v>0.37577913</v>
@@ -2138,15 +2108,12 @@
         <v>0.31162305</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.49758974</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>0.47341459</v>
+        <v>0.47293109</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="n">
-        <v>4199</v>
+        <v>0.7</v>
       </c>
       <c r="B11" t="n">
         <v>0.37577913</v>
@@ -2299,15 +2266,12 @@
         <v>0.27892853</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.38339888</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>0.41797132</v>
+        <v>0.41866277</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="n">
-        <v>4798</v>
+        <v>0.8</v>
       </c>
       <c r="B12" t="n">
         <v>0.37577913</v>
@@ -2460,15 +2424,12 @@
         <v>0.27892853</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.2773277</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>0.38179112</v>
+        <v>0.38388039</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="n">
-        <v>5398</v>
+        <v>0.9</v>
       </c>
       <c r="B13" t="n">
         <v>0.37577913</v>
@@ -2621,15 +2582,12 @@
         <v>0.27892853</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.2773277</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>0.36973268</v>
+        <v>0.37158078</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1" t="n">
-        <v>5998</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>0.37577913</v>
@@ -2782,10 +2740,7 @@
         <v>0.27892853</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.2773277</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0.36186916</v>
+        <v>0.36355999</v>
       </c>
     </row>
   </sheetData>
